--- a/hardware/alpha/dacattac-alpha.xlsx
+++ b/hardware/alpha/dacattac-alpha.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\dacattac\hardware\alpha\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{80A92B52-877B-494F-AF37-8C4BB79A10A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{279ADC62-29D0-4572-BC53-42BEA3DB652E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="23520" xr2:uid="{16604821-8636-4A57-B553-6EE77586ECF5}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="217">
   <si>
     <t>Qty</t>
   </si>
@@ -34,9 +34,6 @@
     <t>Footprint</t>
   </si>
   <si>
-    <t>C1, C2, C3, C4, C5, C6, C7, C12, C13, C14, C15, C16, C17, C21, C22, C23, C43, C44, C45, C54, C57, C58, C59, C71, C72, C73, C74, C75, C76, C77, C78, C87, C88</t>
-  </si>
-  <si>
     <t>100n</t>
   </si>
   <si>
@@ -187,12 +184,6 @@
     <t>220n</t>
   </si>
   <si>
-    <t>C67</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
     <t>C70</t>
   </si>
   <si>
@@ -659,6 +650,27 @@
   </si>
   <si>
     <t>5u6</t>
+  </si>
+  <si>
+    <t>HackRF One BANK2_AUX header</t>
+  </si>
+  <si>
+    <t>C3225X5R1A336M200AC</t>
+  </si>
+  <si>
+    <t>C3225X5R1E106K250AA</t>
+  </si>
+  <si>
+    <t>C3225X7R1H475K250AB</t>
+  </si>
+  <si>
+    <t>C3225X7R1C226M250AC</t>
+  </si>
+  <si>
+    <t>C1, C2, C3, C4, C5, C6, C7, C12, C13, C14, C15, C16, C17, C21, C22, C23, C43, C44, C45, C54, C57, C58, C59, C67, C71, C72, C73, C74, C75, C76, C77, C78, C87, C88</t>
+  </si>
+  <si>
+    <t>C3225X7R1E106K250AC</t>
   </si>
 </sst>
 </file>
@@ -1504,8 +1516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B582A03-12FA-4BCE-A38A-1BB6EECE8276}">
   <dimension ref="A1:E93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1530,21 +1542,21 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1552,13 +1564,13 @@
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="D3" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1566,13 +1578,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="D4" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1580,13 +1592,13 @@
         <v>7</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="D5" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1594,13 +1606,16 @@
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>15</v>
+      <c r="E6" s="3" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -1608,13 +1623,13 @@
         <v>2</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="D7" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1622,13 +1637,13 @@
         <v>3</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="D8" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1636,13 +1651,13 @@
         <v>1</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>21</v>
-      </c>
       <c r="D9" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1650,13 +1665,13 @@
         <v>3</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="D10" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -1664,13 +1679,13 @@
         <v>3</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>25</v>
-      </c>
       <c r="D11" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -1678,13 +1693,13 @@
         <v>1</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>27</v>
-      </c>
       <c r="D12" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -1692,13 +1707,13 @@
         <v>2</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>29</v>
-      </c>
       <c r="D13" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -1706,13 +1721,13 @@
         <v>1</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>31</v>
-      </c>
       <c r="D14" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -1720,13 +1735,13 @@
         <v>1</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>33</v>
-      </c>
       <c r="D15" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -1734,13 +1749,13 @@
         <v>1</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>35</v>
-      </c>
       <c r="D16" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -1748,13 +1763,13 @@
         <v>1</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>37</v>
-      </c>
       <c r="D17" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -1762,16 +1777,16 @@
         <v>1</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="D18" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>40</v>
-      </c>
       <c r="E18" s="3" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -1779,13 +1794,13 @@
         <v>4</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>42</v>
-      </c>
       <c r="D19" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -1793,13 +1808,16 @@
         <v>1</v>
       </c>
       <c r="B20" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>44</v>
-      </c>
       <c r="D20" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -1807,13 +1825,13 @@
         <v>1</v>
       </c>
       <c r="B21" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>46</v>
-      </c>
       <c r="D21" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -1821,13 +1839,16 @@
         <v>2</v>
       </c>
       <c r="B22" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>48</v>
-      </c>
       <c r="D22" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -1835,13 +1856,16 @@
         <v>1</v>
       </c>
       <c r="B23" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>50</v>
-      </c>
       <c r="D23" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -1849,13 +1873,13 @@
         <v>1</v>
       </c>
       <c r="B24" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>52</v>
-      </c>
       <c r="D24" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -1863,13 +1887,13 @@
         <v>1</v>
       </c>
       <c r="B25" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C25" s="3" t="s">
-        <v>54</v>
-      </c>
       <c r="D25" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -1877,13 +1901,13 @@
         <v>1</v>
       </c>
       <c r="B26" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>56</v>
-      </c>
       <c r="D26" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -1891,32 +1915,38 @@
         <v>1</v>
       </c>
       <c r="B27" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C27" s="3" t="s">
-        <v>58</v>
-      </c>
       <c r="D27" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B28" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="D28" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D28" s="3" t="s">
-        <v>15</v>
+      <c r="E28" s="3" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>61</v>
@@ -1925,58 +1955,58 @@
         <v>62</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B30" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="D30" s="3" t="s">
         <v>65</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B31" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="D31" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C31" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>68</v>
+      <c r="E31" s="3">
+        <v>731010120</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>191</v>
+        <v>67</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>192</v>
+        <v>68</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E32" s="3">
-        <v>731010120</v>
+      <c r="E32" s="3" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -1992,13 +2022,10 @@
       <c r="D33" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E33" s="3" t="s">
-        <v>179</v>
-      </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>73</v>
@@ -2012,7 +2039,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>76</v>
@@ -2026,33 +2053,33 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>79</v>
       </c>
       <c r="C36" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D36" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D36" s="3" t="s">
-        <v>81</v>
+      <c r="E36" s="3">
+        <v>7440450056</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B37" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C37" s="3">
+        <v>9510</v>
+      </c>
+      <c r="D37" s="3" t="s">
         <v>82</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="E37" s="3">
-        <v>7440450056</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -2060,55 +2087,55 @@
         <v>1</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C38" s="3">
-        <v>9510</v>
+        <v>9770</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C39" s="3">
-        <v>9770</v>
+        <v>9760</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C40" s="3">
-        <v>9760</v>
+        <v>9750</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C41" s="3">
-        <v>9750</v>
+        <v>9500</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -2116,13 +2143,16 @@
         <v>1</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C42" s="3">
-        <v>9500</v>
+        <v>87</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>85</v>
+        <v>80</v>
+      </c>
+      <c r="E42" s="3">
+        <v>744045100</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -2130,16 +2160,16 @@
         <v>1</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>48</v>
+        <v>89</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E43" s="3">
-        <v>744045100</v>
+        <v>7440329004</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -2147,16 +2177,13 @@
         <v>1</v>
       </c>
       <c r="B44" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D44" s="3" t="s">
         <v>91</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="E44" s="3">
-        <v>7440329004</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -2164,13 +2191,13 @@
         <v>1</v>
       </c>
       <c r="B45" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D45" s="3" t="s">
         <v>93</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -2178,13 +2205,13 @@
         <v>1</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -2192,18 +2219,18 @@
         <v>1</v>
       </c>
       <c r="B47" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D47" s="3" t="s">
         <v>97</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>98</v>
@@ -2214,10 +2241,13 @@
       <c r="D48" s="3" t="s">
         <v>100</v>
       </c>
+      <c r="E48" s="3" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>101</v>
@@ -2226,131 +2256,131 @@
         <v>102</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>102</v>
+        <v>187</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B50" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C50" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C50" s="3" t="s">
-        <v>105</v>
-      </c>
       <c r="D50" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B51" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C51" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C51" s="3" t="s">
-        <v>107</v>
-      </c>
       <c r="D51" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B52" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C52" s="3">
+        <v>33</v>
+      </c>
+      <c r="D52" s="3" t="s">
         <v>108</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B53" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C53" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="C53" s="3">
-        <v>33</v>
-      </c>
       <c r="D53" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>112</v>
+        <v>205</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
+      </c>
+      <c r="C55" s="3">
+        <v>100</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="C56" s="3">
-        <v>100</v>
+        <v>113</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>114</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>116</v>
+        <v>206</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>117</v>
+        <v>207</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -2358,16 +2388,13 @@
         <v>1</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>211</v>
+        <v>108</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -2375,13 +2402,13 @@
         <v>1</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -2389,13 +2416,16 @@
         <v>1</v>
       </c>
       <c r="B60" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C60" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="C60" s="3" t="s">
+      <c r="D60" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E60" s="3" t="s">
         <v>201</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -2403,103 +2433,100 @@
         <v>1</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>199</v>
+        <v>115</v>
+      </c>
+      <c r="C62" s="3">
+        <v>330</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>197</v>
+        <v>108</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C63" s="3">
-        <v>330</v>
+        <v>470</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C64" s="3">
-        <v>470</v>
+        <v>75</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C65" s="3">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="C66" s="3">
-        <v>68</v>
+        <v>204</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>207</v>
+        <v>119</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>8</v>
+        <v>120</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -2507,55 +2534,55 @@
         <v>1</v>
       </c>
       <c r="B68" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C68" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="C68" s="3" t="s">
-        <v>123</v>
-      </c>
       <c r="D68" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B69" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C69" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="C69" s="3" t="s">
-        <v>125</v>
-      </c>
       <c r="D69" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B70" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C70" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="C70" s="3" t="s">
-        <v>127</v>
-      </c>
       <c r="D70" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
+      </c>
+      <c r="C71" s="3">
+        <v>10</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -2563,13 +2590,13 @@
         <v>1</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C72" s="3">
-        <v>10</v>
+        <v>270</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -2577,13 +2604,13 @@
         <v>1</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C73" s="3">
-        <v>270</v>
+        <v>180</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -2591,41 +2618,44 @@
         <v>1</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C74" s="3">
-        <v>180</v>
+        <v>220</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C75" s="3">
-        <v>220</v>
+        <v>0</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="C76" s="3">
-        <v>0</v>
+        <v>132</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>133</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -2633,16 +2663,13 @@
         <v>1</v>
       </c>
       <c r="B77" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C77" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="C77" s="3" t="s">
-        <v>136</v>
-      </c>
       <c r="D77" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="E77" s="3" t="s">
-        <v>196</v>
+        <v>108</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
@@ -2650,13 +2677,13 @@
         <v>1</v>
       </c>
       <c r="B78" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C78" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="C78" s="3" t="s">
-        <v>138</v>
-      </c>
       <c r="D78" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -2664,13 +2691,13 @@
         <v>1</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
+      </c>
+      <c r="C79" s="3">
+        <v>47</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
@@ -2678,13 +2705,16 @@
         <v>1</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C80" s="3">
-        <v>47</v>
+        <v>909</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
@@ -2692,16 +2722,16 @@
         <v>1</v>
       </c>
       <c r="B81" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D81" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="C81" s="3">
-        <v>909</v>
-      </c>
-      <c r="D81" s="3" t="s">
-        <v>111</v>
-      </c>
       <c r="E81" s="3" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
@@ -2718,7 +2748,7 @@
         <v>145</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>187</v>
+        <v>144</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
@@ -2735,7 +2765,7 @@
         <v>148</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>147</v>
+        <v>183</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
@@ -2752,12 +2782,12 @@
         <v>151</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B85" s="3" t="s">
         <v>152</v>
@@ -2769,12 +2799,12 @@
         <v>154</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B86" s="3" t="s">
         <v>155</v>
@@ -2786,7 +2816,7 @@
         <v>157</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -2803,7 +2833,7 @@
         <v>160</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -2820,7 +2850,7 @@
         <v>163</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>182</v>
+        <v>162</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
@@ -2851,10 +2881,10 @@
         <v>168</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
@@ -2862,16 +2892,16 @@
         <v>1</v>
       </c>
       <c r="B91" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C91" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="C91" s="3" t="s">
-        <v>171</v>
-      </c>
       <c r="D91" s="3" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
@@ -2879,33 +2909,24 @@
         <v>1</v>
       </c>
       <c r="B92" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C92" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="C92" s="3" t="s">
+      <c r="D92" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="D92" s="3" t="s">
-        <v>160</v>
-      </c>
       <c r="E92" s="3" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>1</v>
       </c>
-      <c r="B93" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="C93" s="3" t="s">
-        <v>175</v>
-      </c>
       <c r="D93" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="E93" s="3" t="s">
-        <v>175</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>

--- a/hardware/alpha/dacattac-alpha.xlsx
+++ b/hardware/alpha/dacattac-alpha.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\dacattac\hardware\alpha\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{279ADC62-29D0-4572-BC53-42BEA3DB652E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBC62CE2-DF0D-4D83-9589-89B5B67BFEBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="23520" xr2:uid="{16604821-8636-4A57-B553-6EE77586ECF5}"/>
   </bookViews>
@@ -813,7 +813,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -991,6 +991,18 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1154,11 +1166,15 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1517,7 +1533,7 @@
   <dimension ref="A1:E93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1602,19 +1618,19 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="6">
         <v>3</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="7" t="s">
         <v>211</v>
       </c>
     </row>
@@ -1773,19 +1789,19 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>1</v>
-      </c>
-      <c r="B18" s="3" t="s">
+      <c r="A18" s="4">
+        <v>1</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="5" t="s">
         <v>175</v>
       </c>
     </row>
@@ -1804,19 +1820,19 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>1</v>
-      </c>
-      <c r="B20" s="3" t="s">
+      <c r="A20" s="6">
+        <v>1</v>
+      </c>
+      <c r="B20" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" s="7" t="s">
         <v>212</v>
       </c>
     </row>
@@ -1835,36 +1851,36 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="A22" s="6">
         <v>2</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E22" s="7" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>1</v>
-      </c>
-      <c r="B23" s="3" t="s">
+      <c r="A23" s="6">
+        <v>1</v>
+      </c>
+      <c r="B23" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E23" s="7" t="s">
         <v>213</v>
       </c>
     </row>
@@ -1911,53 +1927,53 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>1</v>
-      </c>
-      <c r="B27" s="3" t="s">
+      <c r="A27" s="6">
+        <v>1</v>
+      </c>
+      <c r="B27" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="E27" s="7" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28">
+      <c r="A28" s="6">
         <v>2</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D28" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="E28" s="7" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29">
+      <c r="A29" s="6">
         <v>4</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="E29" s="7" t="s">
         <v>190</v>
       </c>
     </row>
@@ -1976,36 +1992,36 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31">
+      <c r="A31" s="4">
         <v>2</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="D31" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="E31" s="3">
+      <c r="E31" s="5">
         <v>731010120</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>1</v>
-      </c>
-      <c r="B32" s="3" t="s">
+      <c r="A32" s="4">
+        <v>1</v>
+      </c>
+      <c r="B32" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D32" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="E32" s="5" t="s">
         <v>176</v>
       </c>
     </row>
@@ -2052,19 +2068,19 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36">
+      <c r="A36" s="6">
         <v>6</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C36" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="D36" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="E36" s="3">
+      <c r="E36" s="7">
         <v>7440450056</v>
       </c>
     </row>
@@ -2139,36 +2155,36 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>1</v>
-      </c>
-      <c r="B42" s="3" t="s">
+      <c r="A42" s="6">
+        <v>1</v>
+      </c>
+      <c r="B42" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C42" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="D42" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="E42" s="3">
+      <c r="E42" s="7">
         <v>744045100</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>1</v>
-      </c>
-      <c r="B43" s="3" t="s">
+      <c r="A43" s="6">
+        <v>1</v>
+      </c>
+      <c r="B43" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C43" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="D43" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="E43" s="3">
+      <c r="E43" s="7">
         <v>7440329004</v>
       </c>
     </row>
@@ -2229,70 +2245,70 @@
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48">
+      <c r="A48" s="6">
         <v>2</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B48" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="C48" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="D48" s="3" t="s">
+      <c r="D48" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="E48" s="3" t="s">
+      <c r="E48" s="7" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>1</v>
-      </c>
-      <c r="B49" s="3" t="s">
+      <c r="A49" s="6">
+        <v>1</v>
+      </c>
+      <c r="B49" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="C49" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="D49" s="3" t="s">
+      <c r="D49" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="E49" s="3" t="s">
+      <c r="E49" s="7" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50">
+      <c r="A50" s="6">
         <v>2</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B50" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="C50" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="D50" s="3" t="s">
+      <c r="D50" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="E50" s="3" t="s">
+      <c r="E50" s="7" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>1</v>
-      </c>
-      <c r="B51" s="3" t="s">
+      <c r="A51" s="6">
+        <v>1</v>
+      </c>
+      <c r="B51" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="C51" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="D51" s="3" t="s">
+      <c r="D51" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="E51" s="3" t="s">
+      <c r="E51" s="7" t="s">
         <v>185</v>
       </c>
     </row>
@@ -2367,19 +2383,19 @@
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <v>1</v>
-      </c>
-      <c r="B57" s="3" t="s">
+      <c r="A57" s="6">
+        <v>1</v>
+      </c>
+      <c r="B57" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="C57" s="3" t="s">
+      <c r="C57" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="D57" s="3" t="s">
+      <c r="D57" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="E57" s="3" t="s">
+      <c r="E57" s="7" t="s">
         <v>208</v>
       </c>
     </row>
@@ -2412,36 +2428,36 @@
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60">
-        <v>1</v>
-      </c>
-      <c r="B60" s="3" t="s">
+      <c r="A60" s="6">
+        <v>1</v>
+      </c>
+      <c r="B60" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="C60" s="3" t="s">
+      <c r="C60" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="D60" s="3" t="s">
+      <c r="D60" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="E60" s="3" t="s">
+      <c r="E60" s="7" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61">
-        <v>1</v>
-      </c>
-      <c r="B61" s="3" t="s">
+      <c r="A61" s="6">
+        <v>1</v>
+      </c>
+      <c r="B61" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="C61" s="3" t="s">
+      <c r="C61" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="D61" s="3" t="s">
+      <c r="D61" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="E61" s="3" t="s">
+      <c r="E61" s="7" t="s">
         <v>194</v>
       </c>
     </row>
@@ -2642,19 +2658,19 @@
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76">
-        <v>1</v>
-      </c>
-      <c r="B76" s="3" t="s">
+      <c r="A76" s="6">
+        <v>1</v>
+      </c>
+      <c r="B76" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="C76" s="3" t="s">
+      <c r="C76" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="D76" s="3" t="s">
+      <c r="D76" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="E76" s="3" t="s">
+      <c r="E76" s="7" t="s">
         <v>193</v>
       </c>
     </row>
@@ -2701,223 +2717,223 @@
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80">
-        <v>1</v>
-      </c>
-      <c r="B80" s="3" t="s">
+      <c r="A80" s="6">
+        <v>1</v>
+      </c>
+      <c r="B80" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="C80" s="3">
+      <c r="C80" s="7">
         <v>909</v>
       </c>
-      <c r="D80" s="3" t="s">
+      <c r="D80" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="E80" s="3" t="s">
+      <c r="E80" s="7" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81">
-        <v>1</v>
-      </c>
-      <c r="B81" s="3" t="s">
+      <c r="A81" s="4">
+        <v>1</v>
+      </c>
+      <c r="B81" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="C81" s="3" t="s">
+      <c r="C81" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="D81" s="3" t="s">
+      <c r="D81" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="E81" s="3" t="s">
+      <c r="E81" s="5" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82">
-        <v>1</v>
-      </c>
-      <c r="B82" s="3" t="s">
+      <c r="A82" s="4">
+        <v>1</v>
+      </c>
+      <c r="B82" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="C82" s="3" t="s">
+      <c r="C82" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="D82" s="3" t="s">
+      <c r="D82" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="E82" s="3" t="s">
+      <c r="E82" s="5" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83">
-        <v>1</v>
-      </c>
-      <c r="B83" s="3" t="s">
+      <c r="A83" s="4">
+        <v>1</v>
+      </c>
+      <c r="B83" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="C83" s="3" t="s">
+      <c r="C83" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="D83" s="3" t="s">
+      <c r="D83" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="E83" s="3" t="s">
+      <c r="E83" s="5" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84">
-        <v>1</v>
-      </c>
-      <c r="B84" s="3" t="s">
+      <c r="A84" s="4">
+        <v>1</v>
+      </c>
+      <c r="B84" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="C84" s="3" t="s">
+      <c r="C84" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="D84" s="3" t="s">
+      <c r="D84" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="E84" s="3" t="s">
+      <c r="E84" s="5" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85">
+      <c r="A85" s="6">
         <v>2</v>
       </c>
-      <c r="B85" s="3" t="s">
+      <c r="B85" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="C85" s="3" t="s">
+      <c r="C85" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="D85" s="3" t="s">
+      <c r="D85" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="E85" s="3" t="s">
+      <c r="E85" s="7" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86">
-        <v>1</v>
-      </c>
-      <c r="B86" s="3" t="s">
+      <c r="A86" s="6">
+        <v>1</v>
+      </c>
+      <c r="B86" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="C86" s="3" t="s">
+      <c r="C86" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="D86" s="3" t="s">
+      <c r="D86" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="E86" s="3" t="s">
+      <c r="E86" s="7" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87">
-        <v>1</v>
-      </c>
-      <c r="B87" s="3" t="s">
+      <c r="A87" s="4">
+        <v>1</v>
+      </c>
+      <c r="B87" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="C87" s="3" t="s">
+      <c r="C87" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="D87" s="3" t="s">
+      <c r="D87" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="E87" s="3" t="s">
+      <c r="E87" s="5" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88">
-        <v>1</v>
-      </c>
-      <c r="B88" s="3" t="s">
+      <c r="A88" s="4">
+        <v>1</v>
+      </c>
+      <c r="B88" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="C88" s="3" t="s">
+      <c r="C88" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="D88" s="3" t="s">
+      <c r="D88" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="E88" s="3" t="s">
+      <c r="E88" s="5" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89">
-        <v>1</v>
-      </c>
-      <c r="B89" s="3" t="s">
+      <c r="A89" s="4">
+        <v>1</v>
+      </c>
+      <c r="B89" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="C89" s="3" t="s">
+      <c r="C89" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="D89" s="3" t="s">
+      <c r="D89" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="E89" s="3" t="s">
+      <c r="E89" s="5" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90">
-        <v>1</v>
-      </c>
-      <c r="B90" s="3" t="s">
+      <c r="A90" s="6">
+        <v>1</v>
+      </c>
+      <c r="B90" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="C90" s="3" t="s">
+      <c r="C90" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="D90" s="3" t="s">
+      <c r="D90" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="E90" s="3" t="s">
+      <c r="E90" s="7" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91">
-        <v>1</v>
-      </c>
-      <c r="B91" s="3" t="s">
+      <c r="A91" s="6">
+        <v>1</v>
+      </c>
+      <c r="B91" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="C91" s="3" t="s">
+      <c r="C91" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="D91" s="3" t="s">
+      <c r="D91" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="E91" s="3" t="s">
+      <c r="E91" s="7" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92">
-        <v>1</v>
-      </c>
-      <c r="B92" s="3" t="s">
+      <c r="A92" s="4">
+        <v>1</v>
+      </c>
+      <c r="B92" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="C92" s="3" t="s">
+      <c r="C92" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="D92" s="3" t="s">
+      <c r="D92" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="E92" s="3" t="s">
+      <c r="E92" s="5" t="s">
         <v>172</v>
       </c>
     </row>
